--- a/resources/ResourceFile_Depression_nov19.xlsx
+++ b/resources/ResourceFile_Depression_nov19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="583">
   <si>
     <t>Name:</t>
   </si>
@@ -118,30 +118,15 @@
     <t xml:space="preserve">uses wealth level </t>
   </si>
   <si>
-    <t>depression</t>
-  </si>
-  <si>
     <t>currently depressed yes/no</t>
   </si>
   <si>
-    <t>ever_depressed</t>
-  </si>
-  <si>
-    <t>antidepressant</t>
-  </si>
-  <si>
     <t>on antidepressant yes/no</t>
   </si>
   <si>
-    <t>non fatal self harm</t>
-  </si>
-  <si>
     <t>non fatal self harm leading to presentation to health care system this period/instant</t>
   </si>
   <si>
-    <t>suicide</t>
-  </si>
-  <si>
     <t>suicide occurred in this period/instant</t>
   </si>
   <si>
@@ -209,9 +194,6 @@
   </si>
   <si>
     <t>rate_init_antidepr</t>
-  </si>
-  <si>
-    <t>rate of initiation of antidepressant given current depression</t>
   </si>
   <si>
     <t>rate_default_antidepr</t>
@@ -1700,9 +1682,6 @@
     <t>Disability weights for moderate depression is 0.41 and for severe depression 0.66 (Salomon et al 2012).  Since we do not distinguish moderate from severe depression, and since moderate depression is approximately twice as prevalent as severe depression in Malawi (Kohler et al 2017) we use a disability weight of 0.49.</t>
   </si>
   <si>
-    <t>No data I am aware of - have enquired with head of mental health services at MoH - rate leads to about 2% of people on antidepressants</t>
-  </si>
-  <si>
     <t>[0.2, 0.3, 0.5, 0.7, 0.95]</t>
   </si>
   <si>
@@ -1788,13 +1767,67 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>depression (de_depr)</t>
+  </si>
+  <si>
+    <t>ever_depressed (de_ever_depr)</t>
+  </si>
+  <si>
+    <t>antidepressant (de_on_antidepr)</t>
+  </si>
+  <si>
+    <t>suicide (de_suicide)</t>
+  </si>
+  <si>
+    <t>de_date_init_most_rec_depr</t>
+  </si>
+  <si>
+    <t>de_date_depr_resolved</t>
+  </si>
+  <si>
+    <t>non fatal self harm (de_non_fatal_self_harm_event)</t>
+  </si>
+  <si>
+    <t>de_prob_3m_resol_depression</t>
+  </si>
+  <si>
+    <t>date of start of most recent depression</t>
+  </si>
+  <si>
+    <t>date last depression episode resolved</t>
+  </si>
+  <si>
+    <t>rate of resolution of this depression episode</t>
+  </si>
+  <si>
+    <t>rate_diagnosis_depression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No data I am aware of - have enquired with head of mental health services at MoH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02 per 3 months </t>
+  </si>
+  <si>
+    <t>rate of initiation of antidepressant given current diagnosed depression</t>
+  </si>
+  <si>
+    <t>de_ever_diagnosed</t>
+  </si>
+  <si>
+    <t>ever diagnosed with depression</t>
+  </si>
+  <si>
+    <t>rate of diagnosis of depression (given current depression; diagnosis is "ever diagnosed" True/False)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1889,6 +1922,20 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2008,7 +2055,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2085,7 +2132,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2336,6 +2384,44 @@
         <a:xfrm>
           <a:off x="8534400" y="1085850"/>
           <a:ext cx="6626577" cy="3727450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2530928</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>72573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8444097</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14777357" y="1669144"/>
+          <a:ext cx="5913169" cy="1106714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3093,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
@@ -3243,13 +3329,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -3262,13 +3348,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D2" s="23">
         <v>1E-3</v>
@@ -3283,13 +3369,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>5.0000000000000001E-4</v>
@@ -3297,10 +3383,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3311,10 +3397,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3347,16 +3433,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3368,7 +3454,7 @@
     <row r="3" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="C3" s="27" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D3">
         <v>6.9999999999999999E-4</v>
@@ -3376,179 +3462,179 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D6">
         <v>1.5</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D9">
         <v>1.25</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>0.2</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>0.3</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>0.5</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <v>0.7</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <v>0.95</v>
       </c>
       <c r="E19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D20">
         <v>0.5</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D21">
         <v>1.5</v>
       </c>
       <c r="E21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3568,10 +3654,10 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
@@ -3582,2115 +3668,2115 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O34" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C64" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C146" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C147" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C148" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C149" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C150" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C151" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C152" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C153" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C154" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C155" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C156" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C157" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B219" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B222" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B223" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B224" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B226" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B228" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D233" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D234" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D235" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D236" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D237" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D238" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D239" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B240" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B246" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B247" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B251" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B256" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B258" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B277" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B278" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B280" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B284" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B285" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B287" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B289" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B293" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B295" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B296" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B298" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B299" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B301" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B302" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B303" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B306" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B307" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B308" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B309" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B310" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B312" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B313" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B314" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B316" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B322" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B324" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B326" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B329" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B330" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B332" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B333" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B336" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B337" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B338" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B340" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B343" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B345" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C347" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C349" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C350" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C351" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C352" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="353" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C353" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="354" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D354" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="355" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C355" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="357" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C357" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="360" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C360" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="362" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C362" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="365" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C365" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="367" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C367" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="368" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C368" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C369" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C372" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C374" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C375" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C377" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C379" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B381" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B384" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B386" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B387" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B388" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B389" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B393" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B395" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C397" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C398" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C399" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C400" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="401" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C401" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="402" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C402" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="403" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C403" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="404" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C404" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="405" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C405" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="406" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C406" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="407" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C407" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="408" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C408" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="409" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D409" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="410" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D410" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="411" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D411" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="412" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D412" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="413" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D413" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="414" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D414" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="415" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D415" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="416" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C416" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B418" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B421" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B423" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B424" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B425" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B428" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B430" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B432" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B433" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B434" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B435" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B438" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B440" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C441" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C442" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="443" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C443" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C444" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C445" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C446" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B447" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B449" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B453" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B455" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B456" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B459" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B461" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B462" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B465" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B467" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B468" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B469" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B474" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C475" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D476" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D477" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D478" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D479" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D480" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="481" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D481" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="482" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D482" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="483" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D483" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="484" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D484" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="485" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D485" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="486" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D486" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="487" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D487" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="488" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D488" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="489" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D489" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="490" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D490" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="491" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D491" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="492" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D492" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="493" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D493" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="494" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D494" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="495" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D495" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="496" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D496" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="497" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C497" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="499" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C499" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="500" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D500" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="501" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D501" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="502" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D502" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="503" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D503" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="504" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D504" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="505" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D505" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="506" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D506" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="507" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D507" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="508" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D508" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="509" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D509" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="510" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D510" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="511" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D511" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="512" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D512" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D513" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D514" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D515" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D516" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D517" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D518" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D519" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D520" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C521" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="523" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B523" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="524" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B524" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B525" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B527" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B528" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B529" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B531" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B532" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B534" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B535" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="537" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B537" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B539" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B541" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B542" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="543" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B543" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B548" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B549" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B552" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B553" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B554" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B555" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B556" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B557" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B558" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B560" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B561" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B562" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B563" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B565" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B566" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B567" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B568" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B570" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B571" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B572" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="573" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B573" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="574" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B574" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="575" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B575" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="576" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B576" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="577" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B577" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="579" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B579" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="580" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B580" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="582" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B582" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="583" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B583" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="585" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B585" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="586" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B586" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="587" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B587" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="589" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B589" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="591" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B591" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="592" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B592" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="594" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B594" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="596" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B596" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="598" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B598" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -5701,10 +5787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5715,15 +5801,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B2">
         <v>0.06</v>
@@ -5731,7 +5817,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -5739,7 +5825,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5747,18 +5833,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -5766,7 +5852,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5774,7 +5860,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5782,7 +5868,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B9">
         <v>6.0000000000000001E-3</v>
@@ -5790,7 +5876,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B10">
         <v>8.0000000000000002E-3</v>
@@ -5798,7 +5884,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B11">
         <v>0.11</v>
@@ -5806,7 +5892,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -5814,7 +5900,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B13">
         <v>0.5</v>
@@ -5822,7 +5908,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B14">
         <v>8.9999999999999998E-4</v>
@@ -5830,7 +5916,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -5838,7 +5924,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B16">
         <v>1.25</v>
@@ -5846,18 +5932,18 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B18">
         <v>1.5</v>
@@ -5865,7 +5951,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>50</v>
@@ -5873,7 +5959,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B20">
         <v>30</v>
@@ -5881,18 +5967,18 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -5900,15 +5986,15 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B23" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B24">
         <v>0.5</v>
@@ -5916,7 +6002,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B25">
         <v>1.5</v>
@@ -5924,7 +6010,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>0.05</v>
@@ -5932,7 +6018,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B27">
         <v>0.7</v>
@@ -5940,7 +6026,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B28">
         <v>0.2</v>
@@ -5948,7 +6034,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B29">
         <v>5.0000000000000001E-4</v>
@@ -5956,7 +6042,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B30">
         <v>0.33300000000000002</v>
@@ -5964,10 +6050,18 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B31">
         <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="B32" s="23">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -5978,10 +6072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A26:E76"/>
+  <dimension ref="A26:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5999,10 +6093,10 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>16</v>
@@ -6010,462 +6104,518 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
+        <v>565</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>566</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>567</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
+        <v>571</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>568</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>532</v>
+      </c>
+      <c r="D40" t="s">
         <v>32</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E40" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>33</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>1.5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>1.25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>582</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="36"/>
+      <c r="B50" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>533</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>1.5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <v>0.05</v>
+      </c>
+      <c r="D54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>538</v>
-      </c>
-      <c r="D36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="19" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>0.05</v>
+      </c>
+      <c r="D55" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>0.05</v>
+      </c>
+      <c r="D56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57">
+        <v>0.05</v>
+      </c>
+      <c r="D57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58">
+        <v>0.05</v>
+      </c>
+      <c r="D58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="36.5" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B60" s="30" t="s">
+        <v>530</v>
+      </c>
+      <c r="C60" s="31">
+        <v>0.33</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E63" s="18"/>
+    </row>
+    <row r="64" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="34" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="35" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B66" s="33"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B67" s="33"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B68" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39">
-        <v>1.5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40">
-        <v>50</v>
-      </c>
-      <c r="D40" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41">
-        <v>30</v>
-      </c>
-      <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42">
-        <v>1.25</v>
-      </c>
-      <c r="D42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="16" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B70" s="29" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B71" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B72" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="16" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B73" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" t="s">
-        <v>539</v>
-      </c>
-      <c r="D45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="36" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48">
-        <v>1.5</v>
-      </c>
-      <c r="D48" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49">
-        <v>0.05</v>
-      </c>
-      <c r="D49" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50">
-        <v>0.05</v>
-      </c>
-      <c r="D50" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51">
-        <v>0.05</v>
-      </c>
-      <c r="D51" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52">
-        <v>0.05</v>
-      </c>
-      <c r="D52" t="s">
-        <v>171</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53">
-        <v>0.05</v>
-      </c>
-      <c r="D53" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="36.5" x14ac:dyDescent="0.35">
-      <c r="B54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>71</v>
-      </c>
-      <c r="E54" s="20" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="C55" s="31">
-        <v>0.33</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="D56" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57">
-        <v>0.5</v>
-      </c>
-      <c r="D57" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="18" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="21"/>
+      <c r="B76" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="21"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="21"/>
+      <c r="B78" s="22" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E58" s="18"/>
-    </row>
-    <row r="59" spans="2:5" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="34" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="35" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B61" s="33"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B62" s="33"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B63" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B65" s="29" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B66" s="28" t="s">
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="21"/>
+      <c r="B79" s="22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B67" s="16" t="s">
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B80" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="22" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B68" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B69" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="21"/>
-      <c r="B71" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="21"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B75" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="22" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6479,7 +6629,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6491,23 +6641,23 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -6515,16 +6665,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G2">
         <v>4.4999999999999998E-2</v>
@@ -6532,16 +6682,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G3">
         <v>4.4999999999999998E-2</v>
@@ -6549,19 +6699,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G4">
         <v>4.4999999999999998E-2</v>
@@ -6570,16 +6720,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G5">
         <v>0.13500000000000001</v>
@@ -6588,19 +6738,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
         <v>116</v>
       </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G6">
         <v>6.7500000000000004E-2</v>
@@ -6609,19 +6759,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
         <v>118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" t="s">
-        <v>124</v>
       </c>
       <c r="G7">
         <v>6.7500000000000004E-2</v>
@@ -6630,19 +6780,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
         <v>116</v>
       </c>
-      <c r="D8" t="s">
-        <v>122</v>
-      </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G8">
         <v>6.7500000000000004E-2</v>
@@ -6650,19 +6800,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
         <v>116</v>
       </c>
-      <c r="D9" t="s">
-        <v>122</v>
-      </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G9">
         <v>0.20250000000000001</v>
@@ -6670,16 +6820,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G10">
         <v>4.4999999999999998E-2</v>
@@ -6687,16 +6837,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G11">
         <v>4.4999999999999998E-2</v>
@@ -6704,16 +6854,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G12">
         <v>4.4999999999999998E-2</v>
@@ -6721,16 +6871,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G13">
         <v>0.13500000000000001</v>
@@ -6738,19 +6888,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G14">
         <v>6.7500000000000004E-2</v>
@@ -6758,19 +6908,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
         <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" t="s">
-        <v>124</v>
       </c>
       <c r="G15">
         <v>6.7500000000000004E-2</v>
@@ -6778,19 +6928,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G16">
         <v>6.7500000000000004E-2</v>
@@ -6798,19 +6948,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G17">
         <v>0.20250000000000001</v>
@@ -6818,19 +6968,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" t="s">
         <v>118</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" t="s">
-        <v>124</v>
       </c>
       <c r="G18">
         <v>0.20250000000000001</v>
@@ -6838,19 +6988,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G19">
         <v>0.20250000000000001</v>
@@ -6858,19 +7008,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
         <v>118</v>
-      </c>
-      <c r="B20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" t="s">
-        <v>124</v>
       </c>
       <c r="G20">
         <v>0.20250000000000001</v>
@@ -6878,19 +7028,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G21">
         <v>0.20250000000000001</v>
@@ -6898,16 +7048,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G22">
         <v>0.13500000000000001</v>
@@ -6915,16 +7065,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G23">
         <v>0.13500000000000001</v>
@@ -6932,19 +7082,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G24">
         <v>0.13500000000000001</v>
@@ -6952,19 +7102,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G25">
         <v>0.40500000000000003</v>
@@ -6972,19 +7122,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
         <v>116</v>
       </c>
-      <c r="D26" t="s">
-        <v>122</v>
-      </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G26">
         <v>0.20250000000000001</v>
@@ -6992,19 +7142,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
         <v>116</v>
       </c>
-      <c r="D27" t="s">
-        <v>122</v>
-      </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G27">
         <v>0.20250000000000001</v>
@@ -7012,19 +7162,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
         <v>116</v>
       </c>
-      <c r="D28" t="s">
-        <v>122</v>
-      </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G28">
         <v>0.20250000000000001</v>
@@ -7032,19 +7182,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
         <v>120</v>
-      </c>
-      <c r="B29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" t="s">
-        <v>126</v>
       </c>
       <c r="G29">
         <v>0.60750000000000004</v>
@@ -7052,16 +7202,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G30">
         <v>0.13500000000000001</v>
@@ -7069,16 +7219,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G31">
         <v>0.13500000000000001</v>
@@ -7086,16 +7236,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G32">
         <v>0.13500000000000001</v>
@@ -7103,16 +7253,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G33">
         <v>0.40500000000000003</v>
@@ -7120,19 +7270,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G34">
         <v>0.20250000000000001</v>
@@ -7140,19 +7290,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G35">
         <v>0.20250000000000001</v>
@@ -7160,19 +7310,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G36">
         <v>0.20250000000000001</v>
@@ -7180,19 +7330,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
         <v>120</v>
-      </c>
-      <c r="B37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" t="s">
-        <v>126</v>
       </c>
       <c r="G37">
         <v>0.60750000000000004</v>
@@ -7200,19 +7350,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G38">
         <v>0.60750000000000004</v>
@@ -7220,19 +7370,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G39">
         <v>0.60750000000000004</v>
@@ -7240,42 +7390,42 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G40">
         <v>0.60750000000000004</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D41" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G41">
         <v>0.60750000000000004</v>
@@ -7291,7 +7441,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7303,20 +7453,20 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
@@ -7324,16 +7474,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F2">
         <v>0.22500000000000001</v>
@@ -7341,16 +7491,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
         <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" t="s">
-        <v>135</v>
       </c>
       <c r="F3">
         <v>0.15</v>
@@ -7358,16 +7508,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -7402,10 +7552,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="21"/>
@@ -7415,13 +7565,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E2" s="23">
         <v>1</v>
@@ -7434,30 +7584,30 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -7494,27 +7644,27 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" s="24" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>0.03</v>
@@ -7522,10 +7672,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7536,18 +7686,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D8" s="24" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>0.2</v>
@@ -7555,16 +7705,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>0.2</v>
@@ -7572,16 +7722,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>0.7</v>
@@ -7610,13 +7760,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -7629,13 +7779,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>2E-3</v>
@@ -7643,10 +7793,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -7679,7 +7829,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="1"/>

--- a/resources/ResourceFile_Depression_nov19.xlsx
+++ b/resources/ResourceFile_Depression_nov19.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="584">
   <si>
     <t>Name:</t>
   </si>
@@ -1821,6 +1821,9 @@
   </si>
   <si>
     <t>rate of diagnosis of depression (given current depression; diagnosis is "ever diagnosed" True/False)</t>
+  </si>
+  <si>
+    <t>init_pr_ever_diagnosed_depression</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2174,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2241,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2322,7 +2325,7 @@
         <xdr:cNvPr id="38" name="Picture 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2369,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2456,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2514,7 +2517,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,7 +2578,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2636,7 +2639,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2697,7 +2700,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2758,7 +2761,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,7 +2822,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5787,10 +5790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5908,159 +5911,167 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="B14">
-        <v>8.9999999999999998E-4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B16">
-        <v>1.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>119</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B18">
-        <v>1.5</v>
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>555</v>
       </c>
       <c r="B19">
-        <v>50</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>556</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>564</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>559</v>
-      </c>
-      <c r="B23" t="s">
-        <v>536</v>
+        <v>558</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>560</v>
-      </c>
-      <c r="B24">
-        <v>0.5</v>
+        <v>559</v>
+      </c>
+      <c r="B24" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B25">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>561</v>
       </c>
       <c r="B26">
-        <v>0.05</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B27">
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>562</v>
+        <v>53</v>
       </c>
       <c r="B29">
-        <v>5.0000000000000001E-4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="B30">
-        <v>0.33300000000000002</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>530</v>
+      </c>
+      <c r="B31">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>563</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="23" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B33" s="23">
         <v>0.2</v>
       </c>
     </row>
@@ -6074,8 +6085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A26:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6629,7 +6640,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6946,7 +6957,7 @@
         <v>6.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -6966,7 +6977,7 @@
         <v>0.20250000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -6985,8 +6996,11 @@
       <c r="G18">
         <v>0.20250000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -7006,7 +7020,7 @@
         <v>0.20250000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>112</v>
       </c>
@@ -7026,7 +7040,7 @@
         <v>0.20250000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>113</v>
       </c>
@@ -7046,7 +7060,7 @@
         <v>0.20250000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -7063,7 +7077,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -7080,7 +7094,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -7100,7 +7114,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -7120,7 +7134,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -7140,7 +7154,7 @@
         <v>0.20250000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>112</v>
       </c>
@@ -7160,7 +7174,7 @@
         <v>0.20250000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -7180,7 +7194,7 @@
         <v>0.20250000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -7200,7 +7214,7 @@
         <v>0.60750000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -7217,7 +7231,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -7234,7 +7248,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>113</v>
       </c>

--- a/resources/ResourceFile_Depression_nov19.xlsx
+++ b/resources/ResourceFile_Depression_nov19.xlsx
@@ -5792,14 +5792,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="56" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -5874,7 +5875,7 @@
         <v>546</v>
       </c>
       <c r="B9">
-        <v>6.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -5882,7 +5883,7 @@
         <v>547</v>
       </c>
       <c r="B10">
-        <v>8.0000000000000002E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -5914,7 +5915,7 @@
         <v>583</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -6072,7 +6073,7 @@
         <v>576</v>
       </c>
       <c r="B33" s="23">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ResourceFile_Depression_nov19.xlsx
+++ b/resources/ResourceFile_Depression_nov19.xlsx
@@ -5792,8 +5792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6073,7 +6073,7 @@
         <v>576</v>
       </c>
       <c r="B33" s="23">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ResourceFile_Depression_nov19.xlsx
+++ b/resources/ResourceFile_Depression_nov19.xlsx
@@ -5793,7 +5793,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6073,7 +6073,7 @@
         <v>576</v>
       </c>
       <c r="B33" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ResourceFile_Depression_nov19.xlsx
+++ b/resources/ResourceFile_Depression_nov19.xlsx
@@ -5792,8 +5792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5923,7 +5923,7 @@
         <v>551</v>
       </c>
       <c r="B15">
-        <v>8.9999999999999998E-4</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">

--- a/resources/ResourceFile_Depression_nov19.xlsx
+++ b/resources/ResourceFile_Depression_nov19.xlsx
@@ -5793,7 +5793,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5923,7 +5923,7 @@
         <v>551</v>
       </c>
       <c r="B15">
-        <v>1.5E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">

--- a/resources/ResourceFile_Depression_nov19.xlsx
+++ b/resources/ResourceFile_Depression_nov19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Phillips\Dropbox\Thanzi la Onse\04 - Methods Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Phillips\PycharmProjects\TLOmodel\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2174,7 +2174,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2241,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2325,7 +2325,7 @@
         <xdr:cNvPr id="38" name="Picture 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2369,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2456,7 +2456,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2578,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2639,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2700,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2761,7 +2761,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2822,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5793,7 +5793,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5923,7 +5923,7 @@
         <v>551</v>
       </c>
       <c r="B15">
-        <v>1.8E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">

--- a/resources/ResourceFile_Depression_nov19.xlsx
+++ b/resources/ResourceFile_Depression_nov19.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="587">
   <si>
     <t>Name:</t>
   </si>
@@ -1824,6 +1824,15 @@
   </si>
   <si>
     <t>init_pr_ever_diagnosed_depression</t>
+  </si>
+  <si>
+    <t>pr_talk_ther_in_3_mth_period</t>
+  </si>
+  <si>
+    <t>rr_resol_depr_current_talk_ther</t>
+  </si>
+  <si>
+    <t>x rr_depression_current_talk_ther</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2137,6 +2146,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5790,10 +5802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5978,101 +5990,125 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>557</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>564</v>
+      <c r="A22" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="B22" s="21">
+        <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>559</v>
-      </c>
-      <c r="B24" t="s">
-        <v>536</v>
+        <v>558</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>560</v>
-      </c>
-      <c r="B25">
-        <v>0.5</v>
+        <v>559</v>
+      </c>
+      <c r="B25" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B26">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>561</v>
       </c>
       <c r="B27">
-        <v>0.05</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28">
-        <v>0.7</v>
+      <c r="A28" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="B28" s="21">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>562</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>5.0000000000000001E-4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="B32" s="21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>562</v>
+      </c>
+      <c r="B33">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>530</v>
       </c>
-      <c r="B31">
+      <c r="B34">
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>563</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="23" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B36" s="21">
         <v>0.01</v>
       </c>
     </row>

--- a/resources/ResourceFile_Depression_nov19.xlsx
+++ b/resources/ResourceFile_Depression_nov19.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="586">
   <si>
     <t>Name:</t>
   </si>
@@ -1830,9 +1830,6 @@
   </si>
   <si>
     <t>rr_resol_depr_current_talk_ther</t>
-  </si>
-  <si>
-    <t>x rr_depression_current_talk_ther</t>
   </si>
 </sst>
 </file>
@@ -5802,10 +5799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5990,125 +5987,117 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="B22" s="21">
-        <v>0.9</v>
+      <c r="A22" t="s">
+        <v>557</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>564</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>558</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
+        <v>559</v>
+      </c>
+      <c r="B24" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>559</v>
-      </c>
-      <c r="B25" t="s">
-        <v>536</v>
+        <v>560</v>
+      </c>
+      <c r="B25">
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>561</v>
-      </c>
-      <c r="B27">
-        <v>1.5</v>
+      <c r="A27" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="B27" s="21">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="38" t="s">
-        <v>585</v>
-      </c>
-      <c r="B28" s="21">
-        <v>1.1000000000000001</v>
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B29">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31">
-        <v>0.2</v>
+      <c r="A31" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="B31" s="21">
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="21" t="s">
-        <v>584</v>
-      </c>
-      <c r="B32" s="21">
-        <v>0.01</v>
+      <c r="A32" t="s">
+        <v>562</v>
+      </c>
+      <c r="B32">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="B33">
-        <v>5.0000000000000001E-4</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B34">
-        <v>0.33300000000000002</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>563</v>
-      </c>
-      <c r="B35">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="21" t="s">
+      <c r="A35" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B35" s="21">
         <v>0.01</v>
       </c>
     </row>

--- a/resources/ResourceFile_Depression_nov19.xlsx
+++ b/resources/ResourceFile_Depression_nov19.xlsx
@@ -5801,8 +5801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6066,7 +6066,7 @@
         <v>584</v>
       </c>
       <c r="B31" s="21">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
